--- a/nrf_tests_updated_v1.xlsx
+++ b/nrf_tests_updated_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarath\Documents\GitHub\testPilotOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6872FA-C25E-4E89-B1B2-E2ED5441C6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233CC28-0AF6-49AC-BCA1-B8BFC6031794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,9 +879,6 @@
     <t>curl -v --http2-prior-knowledge -X PATCH "http://{ocnrf-ingressgateway}:8081/nnrf-nfm/v1/nf-instances/" -H 'Content-Type:application/json-patch+json'</t>
   </si>
   <si>
-    <t>reg_comp_66_register_data_duplicate_service.json</t>
-  </si>
-  <si>
     <t>{
     "title": "Bad Request",
     "status": 400,
@@ -927,6 +924,9 @@
   </si>
   <si>
     <t>{ "nfInstanceId": "6faf1bbc-6e4a-4454-a507-a14ef8e1bc5a", "nfType": "SMF", "nfStatus": "REGISTERED", "fqdn": "SMF.d5g.oracle.com", "smfInfo": { "vsmfSupportInd": false } }</t>
+  </si>
+  <si>
+    <t>reg_comp_66_register_data_duplicate_serviceInstanceId.json</t>
   </si>
 </sst>
 </file>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>200</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>200</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>263</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
@@ -2931,14 +2931,14 @@
       <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D41" t="s">
-        <v>268</v>
+      <c r="D41" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="E41" t="s">
         <v>263</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
         <v>266</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">

--- a/nrf_tests_updated_v1.xlsx
+++ b/nrf_tests_updated_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarath\Documents\GitHub\testPilotOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233CC28-0AF6-49AC-BCA1-B8BFC6031794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24ABAB-7854-4919-9F76-AB7057C97ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonItems" sheetId="1" r:id="rId1"/>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3176,7 +3176,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4916,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
